--- a/src/Excel/entregable4/CuotaComodin.xlsx
+++ b/src/Excel/entregable4/CuotaComodin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>usuario</t>
   </si>
@@ -52,12 +52,79 @@
   </si>
   <si>
     <t>AA20322KG24M</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4 ago. 2023, 22:52:04</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 22:52:54</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 22:55:56</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:01:34</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:02:29</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:05:30</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:08:29</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:09:34</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:10:17</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:11:34</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:14:54</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:16:25</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:18:05</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:21:28</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:23:17</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:25:23</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:26:30</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:27:38</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:29:39</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 23:31:32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,12 +475,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -445,6 +512,15 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CuotaComodin.xlsx
+++ b/src/Excel/entregable4/CuotaComodin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B056E-6F75-4E17-A9A9-94AE375A8489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8240F0ED-357B-4845-9B78-48C3064AAB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>usuario</t>
   </si>
@@ -45,79 +45,22 @@
     <t>Transaccion</t>
   </si>
   <si>
-    <t>SCISNEROSA1</t>
-  </si>
-  <si>
     <t>arreglo</t>
   </si>
   <si>
     <t>AA20322KG24M</t>
   </si>
   <si>
+    <t>mrobles</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>4 ago. 2023, 22:52:04</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 22:52:54</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 22:55:56</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:01:34</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:02:29</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:05:30</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:08:29</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:09:34</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:10:17</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:11:34</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:14:54</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:16:25</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:18:05</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:21:28</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:23:17</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:25:23</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:26:30</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:27:38</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:29:39</t>
-  </si>
-  <si>
-    <t>4 ago. 2023, 23:31:32</t>
+    <t>9 ago. 2023, 09:38:05</t>
   </si>
 </sst>
 </file>
@@ -470,7 +413,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -505,13 +448,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -520,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CuotaComodin.xlsx
+++ b/src/Excel/entregable4/CuotaComodin.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>9 ago. 2023, 09:38:05</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:47:42</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:50:25</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:53:50</t>
+  </si>
+  <si>
+    <t>AAACT23221GTJ1F7T</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:56:08</t>
   </si>
 </sst>
 </file>
@@ -457,13 +475,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CuotaComodin.xlsx
+++ b/src/Excel/entregable4/CuotaComodin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8240F0ED-357B-4845-9B78-48C3064AAB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181F8C0-719F-4B08-9A62-0967AA23B810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Transaccion</t>
   </si>
   <si>
-    <t>arreglo</t>
-  </si>
-  <si>
-    <t>AA20322KG24M</t>
-  </si>
-  <si>
     <t>mrobles</t>
   </si>
   <si>
@@ -60,32 +54,28 @@
     <t/>
   </si>
   <si>
-    <t>9 ago. 2023, 09:38:05</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:47:42</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:50:25</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:53:50</t>
-  </si>
-  <si>
-    <t>AAACT23221GTJ1F7T</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:56:08</t>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>usuAp</t>
+  </si>
+  <si>
+    <t>walfaro</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 14:55:26</t>
+  </si>
+  <si>
+    <t>fechaMaduracion</t>
+  </si>
+  <si>
+    <t>1010830776</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,23 +418,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,36 +444,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CuotaComodin.xlsx
+++ b/src/Excel/entregable4/CuotaComodin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181F8C0-719F-4B08-9A62-0967AA23B810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030E7C5-7BD6-4EE1-9E75-3F006441D571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -48,12 +48,6 @@
     <t>mrobles</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>cuenta</t>
   </si>
   <si>
@@ -63,19 +57,29 @@
     <t>walfaro</t>
   </si>
   <si>
-    <t>9 ago. 2023, 14:55:26</t>
-  </si>
-  <si>
     <t>fechaMaduracion</t>
   </si>
   <si>
-    <t>1010830776</t>
+    <t>1010830838</t>
+  </si>
+  <si>
+    <t>20240505</t>
+  </si>
+  <si>
+    <t>AAACT23221TYZ4M51</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:57:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,19 +425,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -444,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -470,20 +474,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
